--- a/Document/Emin/Base_on_dcloud/混合开发框架_iOS.xlsx
+++ b/Document/Emin/Base_on_dcloud/混合开发框架_iOS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="620" windowWidth="25600" windowHeight="18120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1100" yWindow="8600" windowWidth="25600" windowHeight="15860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本配置" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Type:String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  2.4 更该项目的文件夹为新的项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2.4.1 Xcode中选择"BaseApp" Group(黄色的文件夹)-&gt;名称修改为"CheckCenter"，关闭Xcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,6 +669,14 @@
   </si>
   <si>
     <t xml:space="preserve">    然后修改该manifest.json中id的值(这里是H5ADF3F84);launch_path的值(原web工程中入口是login.html,所以这里的值就是login.html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.4 更改项目的文件夹为新的项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  (如果编译没有问题,但是面板上还是红色,则重启工程即可)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,13 +1207,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1241,13 +1245,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1279,13 +1283,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>261</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1317,13 +1321,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1354,13 +1358,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1543,13 +1547,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1581,13 +1585,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1619,13 +1623,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1657,13 +1661,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1695,13 +1699,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1733,13 +1737,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1771,13 +1775,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>237</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1809,13 +1813,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1846,13 +1850,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1884,13 +1888,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>383</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1921,13 +1925,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>382</xdr:row>
+      <xdr:row>384</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1959,13 +1963,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>442</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1997,13 +2001,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>411</xdr:row>
+      <xdr:row>413</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>442</xdr:row>
+      <xdr:row>444</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2527,7 +2531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M411"/>
+  <dimension ref="B3:M413"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2538,7 +2542,7 @@
   <sheetData>
     <row r="3" spans="2:2" ht="21">
       <c r="B3" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:2">
@@ -2546,7 +2550,7 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="21">
@@ -2561,17 +2565,17 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:2">
@@ -2581,127 +2585,123 @@
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="2:13">
       <c r="B113" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="2:13">
       <c r="B114" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13">
-      <c r="C116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M116" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13">
+      <c r="C115" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13">
+      <c r="C118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8">
+      <c r="C148" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="3:8">
-      <c r="C146" s="1" t="s">
+    <row r="151" spans="3:8">
+      <c r="C151" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="149" spans="3:8">
-      <c r="C149" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3">
-      <c r="C174" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="176" spans="2:3">
       <c r="C176" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="C196" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
-      <c r="B193" s="1" t="s">
+    <row r="217" spans="2:3">
+      <c r="B217" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="194" spans="2:3">
-      <c r="C194" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="C217" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="219" spans="2:3">
       <c r="C219" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="C221" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="2"/>
-      <c r="C224" s="1" t="s">
-        <v>59</v>
+      <c r="B224" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="2:3">
@@ -2709,6 +2709,9 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="2"/>
+      <c r="C226" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="2"/>
@@ -2722,56 +2725,56 @@
     <row r="230" spans="2:3">
       <c r="B230" s="2"/>
     </row>
-    <row r="237" spans="2:3">
-      <c r="C237" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="C250" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="C251" s="1" t="s">
+    <row r="231" spans="2:3">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="C239" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="255" spans="2:3">
-      <c r="B255" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="257" spans="3:3">
-      <c r="C257" s="1" t="s">
+    <row r="253" spans="3:3">
+      <c r="C253" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="C259" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="C263" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="261" spans="3:3">
-      <c r="C261" s="1" t="s">
+    <row r="281" spans="3:3">
+      <c r="C281" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="C298" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
-      <c r="C279" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3">
-      <c r="C296" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3">
-      <c r="B301" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="302" spans="2:3">
-      <c r="B302" s="4"/>
-    </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="4"/>
+      <c r="B303" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" s="4"/>
@@ -2800,24 +2803,25 @@
     <row r="312" spans="2:2">
       <c r="B312" s="4"/>
     </row>
-    <row r="337" spans="2:2" ht="21">
-      <c r="B337" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" s="1" t="s">
-        <v>66</v>
+    <row r="313" spans="2:2">
+      <c r="B313" s="4"/>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="4"/>
+    </row>
+    <row r="339" spans="2:2" ht="21">
+      <c r="B339" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="341" spans="2:2">
       <c r="B341" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2">
-      <c r="B342" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="344" spans="2:2">
@@ -2827,40 +2831,40 @@
     </row>
     <row r="346" spans="2:2">
       <c r="B346" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2">
-      <c r="B347" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="348" spans="2:2">
       <c r="B348" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9">
+      <c r="B364" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="362" spans="2:9">
-      <c r="B362" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="364" spans="2:9">
-      <c r="C364" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="366" spans="2:9">
       <c r="C366" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9">
+      <c r="C368" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I368" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="I366" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="386" spans="2:3">
@@ -2868,85 +2872,90 @@
         <v>77</v>
       </c>
     </row>
-    <row r="387" spans="2:3">
-      <c r="B387" s="1" t="s">
-        <v>98</v>
+    <row r="388" spans="2:3">
+      <c r="B388" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="389" spans="2:3">
       <c r="B389" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="392" spans="2:3">
-      <c r="B392" s="1" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="394" spans="2:3">
-      <c r="C394" s="1" t="s">
-        <v>80</v>
+      <c r="B394" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="396" spans="2:3">
       <c r="C396" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="397" spans="2:3">
-      <c r="C397" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="398" spans="2:3">
       <c r="C398" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="399" spans="2:3">
       <c r="C399" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="C400" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="401" spans="2:9">
       <c r="C401" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="402" spans="2:9">
-      <c r="C402" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="403" spans="2:9">
       <c r="C403" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="404" spans="2:9">
       <c r="C404" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="405" spans="2:9">
+      <c r="C405" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="406" spans="2:9">
       <c r="C406" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="409" spans="2:9" ht="21">
-      <c r="B409" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="408" spans="2:9">
+      <c r="C408" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="411" spans="2:9" ht="21">
+      <c r="B411" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="412" spans="2:9" ht="21">
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="2:9">
+      <c r="C413" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="410" spans="2:9" ht="21">
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="2:9">
-      <c r="C411" s="1" t="s">
+      <c r="I413" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I411" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
